--- a/Referenzzinssatz_bereinigt.xlsx
+++ b/Referenzzinssatz_bereinigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancapauger/Library/Mobile Documents/com~apple~CloudDocs/Master/2. Semester/BINA/Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4AE84B-0702-A146-B173-DFB4A16B1494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600828E-AEED-7347-9BD7-6F1620F5C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="1080" windowWidth="28240" windowHeight="17240" xr2:uid="{64FB0C9E-9389-1346-9A4A-E265C2D7178A}"/>
   </bookViews>
@@ -123,6 +123,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -158,11 +161,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -500,21 +510,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -524,11 +535,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4">
+        <v>45353</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45353</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -538,11 +549,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44987</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -553,11 +564,11 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4">
+        <v>44622</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44622</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -568,11 +579,11 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4">
+        <v>44257</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -582,11 +593,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4">
+        <v>43893</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43893</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -596,11 +607,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4">
+        <v>43526</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43526</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -610,11 +621,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4">
+        <v>43161</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43161</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -624,11 +635,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4">
+        <v>42796</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42796</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -638,11 +649,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4">
+        <v>42431</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>42431</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -652,11 +663,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
+        <v>42066</v>
+      </c>
+      <c r="B11" s="6">
         <v>0.02</v>
-      </c>
-      <c r="B11" s="2">
-        <v>42066</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -666,11 +677,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
+        <v>41702</v>
+      </c>
+      <c r="B12" s="6">
         <v>0.02</v>
-      </c>
-      <c r="B12" s="2">
-        <v>41702</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -680,11 +691,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4">
+        <v>41335</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>41335</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -694,11 +705,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4">
+        <v>40970</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>40970</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -708,11 +719,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4">
+        <v>40604</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>40604</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
@@ -722,11 +733,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
+        <v>40239</v>
+      </c>
+      <c r="B16" s="6">
         <v>0.03</v>
-      </c>
-      <c r="B16" s="2">
-        <v>40239</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -736,11 +747,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4">
+        <v>39875</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>39875</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>

--- a/Referenzzinssatz_bereinigt.xlsx
+++ b/Referenzzinssatz_bereinigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancapauger/Library/Mobile Documents/com~apple~CloudDocs/Master/2. Semester/BINA/Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600828E-AEED-7347-9BD7-6F1620F5C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF8EE7-BDD4-7447-89F5-7393B60E2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="1080" windowWidth="28240" windowHeight="17240" xr2:uid="{64FB0C9E-9389-1346-9A4A-E265C2D7178A}"/>
   </bookViews>
@@ -110,13 +110,13 @@
     <t>Hypothekarischer Referenzzinssatz bei Mietverhältnissen</t>
   </si>
   <si>
-    <t>gültig ab</t>
-  </si>
-  <si>
     <t>zugrunde liegender Durchschnittszinssatz</t>
   </si>
   <si>
     <t>Stichtag der Erhebung</t>
+  </si>
+  <si>
+    <t>Jahr</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -165,8 +165,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -510,7 +510,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,16 +522,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">

--- a/Referenzzinssatz_bereinigt.xlsx
+++ b/Referenzzinssatz_bereinigt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancapauger/Library/Mobile Documents/com~apple~CloudDocs/Master/2. Semester/BINA/Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF8EE7-BDD4-7447-89F5-7393B60E2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7412F254-1785-0840-9807-4635DDB75093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1080" windowWidth="28240" windowHeight="17240" xr2:uid="{64FB0C9E-9389-1346-9A4A-E265C2D7178A}"/>
+    <workbookView xWindow="5420" yWindow="1200" windowWidth="28240" windowHeight="17240" xr2:uid="{64FB0C9E-9389-1346-9A4A-E265C2D7178A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -166,13 +166,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -510,12 +510,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -535,8 +535,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45353</v>
+      <c r="A2" s="6">
+        <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -549,8 +549,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44987</v>
+      <c r="A3" s="6">
+        <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -564,8 +564,8 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44622</v>
+      <c r="A4" s="6">
+        <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -579,10 +579,10 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44257</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -593,10 +593,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>43893</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -607,10 +607,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>43526</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -621,10 +621,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>43161</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -635,10 +635,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>42796</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -649,10 +649,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>42431</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -663,10 +663,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>42066</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.02</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -677,10 +677,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>41702</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.02</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -691,10 +691,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>41335</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -705,10 +705,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>40970</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -719,10 +719,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>40604</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -733,10 +733,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>40239</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.03</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -747,10 +747,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>39875</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
